--- a/ASPNETCore-SignalR-Angular-TypeScript/App/Game/SpeedCalculations.xlsx
+++ b/ASPNETCore-SignalR-Angular-TypeScript/App/Game/SpeedCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\games\HazardHighway\ASPNETCore-SignalR-Angular-TypeScript\App\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EEE8CF-4009-422E-AC79-53BFD49A9EA3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154ABAA6-A410-4C9F-85AB-3A59A1622DDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" xr2:uid="{6110ACBD-490E-4EE7-AB26-B94330B23FB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8160" xr2:uid="{6110ACBD-490E-4EE7-AB26-B94330B23FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>MPH</t>
   </si>
@@ -36,17 +36,87 @@
     <t>MS/Hr</t>
   </si>
   <si>
-    <t>Interval (MPS)</t>
+    <t>CellsPerInterval</t>
   </si>
   <si>
-    <t>CellsPerInterval</t>
+    <t>Safe
+Stopping
+Distance</t>
+  </si>
+  <si>
+    <t>Safe
+Tailing
+Distance</t>
+  </si>
+  <si>
+    <t>Safe
+Accel.
+Distance</t>
+  </si>
+  <si>
+    <t>Cells
+Needed For
+Complete
+Stop</t>
+  </si>
+  <si>
+    <t>lead x</t>
+  </si>
+  <si>
+    <t>host x</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>host safe dist.</t>
+  </si>
+  <si>
+    <t>host speed diff multiplier</t>
+  </si>
+  <si>
+    <t>lead cells travelled</t>
+  </si>
+  <si>
+    <t>host cells travelled</t>
+  </si>
+  <si>
+    <t>host safe dist. From lead</t>
+  </si>
+  <si>
+    <t>lead mph (for physics)</t>
+  </si>
+  <si>
+    <t>host mph (for physics)</t>
+  </si>
+  <si>
+    <t>lead mph (for next physics cycle)</t>
+  </si>
+  <si>
+    <t>lead user/vehicle change mph (queued)</t>
+  </si>
+  <si>
+    <t>host mph (for next physics cycle)</t>
+  </si>
+  <si>
+    <t>host user/vehicle change mph (queued)</t>
+  </si>
+  <si>
+    <t>lead/host mph diff</t>
+  </si>
+  <si>
+    <t>lead/host cell distance</t>
+  </si>
+  <si>
+    <t>Interval
+(MPS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +124,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +194,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,56 +523,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F0EF5-0CC7-4152-8DAF-3149874E059B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A2:AT23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="12.41796875" customWidth="1"/>
-    <col min="5" max="5" width="16.3125" customWidth="1"/>
+    <col min="4" max="4" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="33.734375" customWidth="1"/>
+    <col min="11" max="27" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.5234375" customWidth="1"/>
+    <col min="30" max="46" width="3.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:46" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="Y2">
+        <v>13</v>
+      </c>
+      <c r="Z2">
+        <v>14</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>6</v>
+      </c>
+      <c r="AL2">
+        <v>7</v>
+      </c>
+      <c r="AM2">
+        <v>8</v>
+      </c>
+      <c r="AN2">
+        <v>9</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>11</v>
+      </c>
+      <c r="AQ2">
+        <v>12</v>
+      </c>
+      <c r="AR2">
+        <v>13</v>
+      </c>
+      <c r="AS2">
+        <v>14</v>
+      </c>
+      <c r="AT2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5280</v>
-      </c>
-      <c r="C2">
-        <v>3600000</v>
-      </c>
-      <c r="D2">
-        <v>250</v>
-      </c>
-      <c r="E2">
-        <f>((A2*B2)/C2)*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>5280</v>
@@ -452,13 +683,25 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">((A3*B3)/C3)*D3</f>
-        <v>1.8333333333333333</v>
+        <f>((A3*B3)/C3)*D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5280</v>
@@ -470,247 +713,1659 @@
         <v>250</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4:E23" si="0">((A4*B4)/C4)*D4</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>5280</v>
+      </c>
+      <c r="C5">
+        <v>3600000</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-5</v>
+      </c>
+      <c r="N5" s="10">
+        <v>-5</v>
+      </c>
+      <c r="O5">
+        <v>-5</v>
+      </c>
+      <c r="P5">
+        <v>-5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>-5</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>-5</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>-5</v>
+      </c>
+      <c r="AH5">
+        <v>-5</v>
+      </c>
+      <c r="AI5">
+        <v>-5</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5280</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3600000</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>250</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6">
+        <v>30</v>
+      </c>
+      <c r="AE6">
+        <v>30</v>
+      </c>
+      <c r="AF6">
+        <v>25</v>
+      </c>
+      <c r="AG6">
+        <v>20</v>
+      </c>
+      <c r="AH6">
+        <v>15</v>
+      </c>
+      <c r="AI6">
+        <v>10</v>
+      </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5280</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3600000</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>250</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7">
+        <v>11</v>
+      </c>
+      <c r="AE7">
+        <v>11</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5280</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3600000</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>250</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>9.1666666666666661</v>
       </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8" s="8">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9">
+        <v>15</v>
+      </c>
+      <c r="N8" s="10">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5280</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3600000</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>250</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>290</v>
+      </c>
+      <c r="L9">
+        <v>300</v>
+      </c>
+      <c r="M9">
+        <v>310</v>
+      </c>
+      <c r="N9">
+        <v>318</v>
+      </c>
+      <c r="O9">
+        <v>324</v>
+      </c>
+      <c r="P9">
+        <v>328</v>
+      </c>
+      <c r="Q9">
+        <v>330</v>
+      </c>
+      <c r="R9">
+        <v>330</v>
+      </c>
+      <c r="S9">
+        <v>330</v>
+      </c>
+      <c r="T9">
+        <v>330</v>
+      </c>
+      <c r="U9">
+        <v>330</v>
+      </c>
+      <c r="V9">
+        <v>330</v>
+      </c>
+      <c r="W9">
+        <v>330</v>
+      </c>
+      <c r="X9">
+        <v>330</v>
+      </c>
+      <c r="Y9">
+        <v>330</v>
+      </c>
+      <c r="Z9">
+        <v>330</v>
+      </c>
+      <c r="AA9">
+        <v>330</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9">
+        <v>265</v>
+      </c>
+      <c r="AE9">
+        <v>276</v>
+      </c>
+      <c r="AF9">
+        <v>310</v>
+      </c>
+      <c r="AG9">
+        <v>318</v>
+      </c>
+      <c r="AH9">
+        <v>324</v>
+      </c>
+      <c r="AI9">
+        <v>328</v>
+      </c>
+      <c r="AJ9">
+        <v>330</v>
+      </c>
+      <c r="AK9">
+        <v>330</v>
+      </c>
+      <c r="AL9">
+        <v>330</v>
+      </c>
+      <c r="AM9">
+        <v>330</v>
+      </c>
+      <c r="AN9">
+        <v>330</v>
+      </c>
+      <c r="AO9">
+        <v>330</v>
+      </c>
+      <c r="AP9">
+        <v>330</v>
+      </c>
+      <c r="AQ9">
+        <v>330</v>
+      </c>
+      <c r="AR9">
+        <v>330</v>
+      </c>
+      <c r="AS9">
+        <v>330</v>
+      </c>
+      <c r="AT9">
+        <v>330</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5280</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3600000</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>250</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>12.833333333333334</v>
       </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>5280</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3600000</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>250</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
+      <c r="F11">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM(K9-K18)</f>
+        <v>49</v>
+      </c>
+      <c r="L11" s="3">
+        <f>SUM(L9-L18)</f>
+        <v>48</v>
+      </c>
+      <c r="M11" s="3">
+        <f>SUM(M9-M18)</f>
+        <v>47</v>
+      </c>
+      <c r="N11" s="3">
+        <f>SUM(N9-N18)</f>
+        <v>45</v>
+      </c>
+      <c r="O11" s="3">
+        <f>SUM(O9-O18)</f>
+        <v>43</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM(P9-P18)</f>
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM(Q9-Q18)</f>
+        <v>37</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM(R9-R18)</f>
+        <v>33</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:V11" si="1">SUM(S9-S18)</f>
+        <v>29</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" ref="U11:V11" si="2">SUM(U9-U18)</f>
+        <v>21</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11:X11" si="3">SUM(W9-W18)</f>
+        <v>11</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11:AA11" si="4">SUM(Y9-Y18)</f>
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>SUM(AD9-AD18)</f>
+        <v>24</v>
+      </c>
+      <c r="AE11" s="3">
+        <f>SUM(AE9-AE18)</f>
+        <v>24</v>
+      </c>
+      <c r="AF11" s="3">
+        <f>SUM(AF9-AF18)</f>
+        <v>47</v>
+      </c>
+      <c r="AG11" s="3">
+        <f>SUM(AG9-AG18)</f>
+        <v>45</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>SUM(AH9-AH18)</f>
+        <v>43</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM(AI9-AI18)</f>
+        <v>39</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM(AJ9-AJ18)</f>
+        <v>37</v>
+      </c>
+      <c r="AK11" s="4">
+        <f>SUM(AK9-AK18)</f>
+        <v>33</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" ref="AL11:AT11" si="5">SUM(AL9-AL18)</f>
+        <v>29</v>
+      </c>
+      <c r="AM11" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
         <v>45</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5280</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3600000</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>250</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
+      <c r="F12">
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K6-K15)</f>
+        <v>-5</v>
+      </c>
+      <c r="L12">
+        <f>SUM(L6-L15)</f>
+        <v>-5</v>
+      </c>
+      <c r="M12">
+        <f>SUM(M6-M15)</f>
+        <v>-10</v>
+      </c>
+      <c r="N12">
+        <f>SUM(N6-N15)</f>
+        <v>-10</v>
+      </c>
+      <c r="O12">
+        <f>SUM(O6-O15)</f>
+        <v>-10</v>
+      </c>
+      <c r="P12">
+        <f>SUM(P6-P15)</f>
+        <v>-10</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Q6-Q15)</f>
+        <v>-10</v>
+      </c>
+      <c r="R12">
+        <f>SUM(R6-R15)</f>
+        <v>-10</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:T12" si="6">SUM(S6-S15)</f>
+        <v>-10</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:V12" si="7">SUM(U6-U15)</f>
+        <v>-10</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12:X12" si="8">SUM(W6-W15)</f>
+        <v>-5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:AA12" si="9">SUM(Y6-Y15)</f>
+        <v>-5</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12">
+        <f>SUM(AD6-AD15)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>SUM(AE6-AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>SUM(AF6-AF15)</f>
+        <v>-5</v>
+      </c>
+      <c r="AG12">
+        <f>SUM(AG6-AG15)</f>
+        <v>-5</v>
+      </c>
+      <c r="AH12">
+        <f>SUM(AH6-AH15)</f>
+        <v>-5</v>
+      </c>
+      <c r="AI12">
+        <f>SUM(AI6-AI15)</f>
+        <v>-5</v>
+      </c>
+      <c r="AJ12">
+        <f>SUM(AJ6-AJ15)</f>
+        <v>-5</v>
+      </c>
+      <c r="AK12">
+        <f>SUM(AK6-AK15)</f>
+        <v>-10</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" ref="AL12:AT12" si="10">SUM(AL6-AL15)</f>
+        <v>-10</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>5280</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3600000</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>250</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>18.333333333333332</v>
       </c>
+      <c r="F13">
+        <v>172</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
         <v>55</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>5280</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3600000</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>250</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>20.166666666666664</v>
       </c>
+      <c r="F14">
+        <v>207</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>-5</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
         <v>60</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>5280</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3600000</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="F15">
+        <v>239</v>
+      </c>
+      <c r="G15">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15" s="11">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD15">
+        <v>30</v>
+      </c>
+      <c r="AE15">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>30</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>20</v>
+      </c>
+      <c r="AI15">
+        <v>15</v>
+      </c>
+      <c r="AJ15">
+        <v>10</v>
+      </c>
+      <c r="AK15">
+        <v>10</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>10</v>
+      </c>
+      <c r="AO15">
+        <v>10</v>
+      </c>
+      <c r="AP15">
+        <v>5</v>
+      </c>
+      <c r="AQ15">
+        <v>5</v>
+      </c>
+      <c r="AR15">
+        <v>5</v>
+      </c>
+      <c r="AS15">
+        <v>5</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
         <v>65</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>5280</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3600000</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>250</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>23.833333333333336</v>
       </c>
+      <c r="F16">
+        <v>275</v>
+      </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4">
+        <v>8</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>4</v>
+      </c>
+      <c r="S16" s="4">
+        <v>4</v>
+      </c>
+      <c r="T16" s="4">
+        <v>4</v>
+      </c>
+      <c r="U16" s="4">
+        <v>4</v>
+      </c>
+      <c r="V16" s="4">
+        <v>4</v>
+      </c>
+      <c r="W16" s="4">
+        <v>2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>11</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
         <v>70</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>5280</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3600000</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>250</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>25.666666666666668</v>
       </c>
+      <c r="F17">
+        <v>315</v>
+      </c>
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17" s="5">
+        <v>30</v>
+      </c>
+      <c r="M17" s="6">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD17">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>25</v>
+      </c>
+      <c r="AG17">
+        <v>20</v>
+      </c>
+      <c r="AH17">
+        <v>15</v>
+      </c>
+      <c r="AI17">
+        <v>10</v>
+      </c>
+      <c r="AJ17">
+        <v>10</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>10</v>
+      </c>
+      <c r="AO17">
+        <v>5</v>
+      </c>
+      <c r="AP17">
+        <v>5</v>
+      </c>
+      <c r="AQ17">
+        <v>5</v>
+      </c>
+      <c r="AR17">
+        <v>5</v>
+      </c>
+      <c r="AS17">
+        <v>5</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
         <v>75</v>
-      </c>
-      <c r="B17">
-        <v>5280</v>
-      </c>
-      <c r="C17">
-        <v>3600000</v>
-      </c>
-      <c r="D17">
-        <v>250</v>
-      </c>
-      <c r="E17">
-        <f>((A17*B17)/C17)*D17</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>80</v>
       </c>
       <c r="B18">
         <v>5280</v>
@@ -722,83 +2377,652 @@
         <v>250</v>
       </c>
       <c r="E18">
+        <f>((A18*B18)/C18)*D18</f>
+        <v>27.5</v>
+      </c>
+      <c r="F18">
+        <v>356</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>241</v>
+      </c>
+      <c r="L18" s="2">
+        <v>252</v>
+      </c>
+      <c r="M18" s="5">
+        <v>263</v>
+      </c>
+      <c r="N18" s="6">
+        <v>273</v>
+      </c>
+      <c r="O18">
+        <v>281</v>
+      </c>
+      <c r="P18">
+        <v>289</v>
+      </c>
+      <c r="Q18">
+        <v>293</v>
+      </c>
+      <c r="R18">
+        <v>297</v>
+      </c>
+      <c r="S18">
+        <v>301</v>
+      </c>
+      <c r="T18">
+        <v>305</v>
+      </c>
+      <c r="U18">
+        <v>309</v>
+      </c>
+      <c r="V18">
+        <v>317</v>
+      </c>
+      <c r="W18">
+        <v>319</v>
+      </c>
+      <c r="X18">
+        <v>321</v>
+      </c>
+      <c r="Y18">
+        <v>323</v>
+      </c>
+      <c r="Z18">
+        <v>325</v>
+      </c>
+      <c r="AA18">
+        <v>327</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18">
+        <v>241</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>263</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>273</v>
+      </c>
+      <c r="AH18">
+        <v>281</v>
+      </c>
+      <c r="AI18">
+        <v>289</v>
+      </c>
+      <c r="AJ18">
+        <v>293</v>
+      </c>
+      <c r="AK18">
+        <v>297</v>
+      </c>
+      <c r="AL18">
+        <v>301</v>
+      </c>
+      <c r="AM18">
+        <v>305</v>
+      </c>
+      <c r="AN18">
+        <v>309</v>
+      </c>
+      <c r="AO18">
+        <v>317</v>
+      </c>
+      <c r="AP18">
+        <v>319</v>
+      </c>
+      <c r="AQ18">
+        <v>321</v>
+      </c>
+      <c r="AR18">
+        <v>323</v>
+      </c>
+      <c r="AS18">
+        <v>325</v>
+      </c>
+      <c r="AT18">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>5280</v>
+      </c>
+      <c r="C19">
+        <v>3600000</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>29.333333333333332</v>
       </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>8</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19">
+        <v>24</v>
+      </c>
+      <c r="AE19">
+        <v>24</v>
+      </c>
+      <c r="AF19">
+        <v>24</v>
+      </c>
+      <c r="AG19">
+        <v>20</v>
+      </c>
+      <c r="AH19">
+        <v>16</v>
+      </c>
+      <c r="AI19">
+        <v>12</v>
+      </c>
+      <c r="AJ19">
+        <v>8</v>
+      </c>
+      <c r="AK19">
+        <v>8</v>
+      </c>
+      <c r="AL19">
+        <v>8</v>
+      </c>
+      <c r="AM19">
+        <v>8</v>
+      </c>
+      <c r="AN19">
+        <v>8</v>
+      </c>
+      <c r="AO19">
+        <v>8</v>
+      </c>
+      <c r="AP19">
+        <v>5</v>
+      </c>
+      <c r="AQ19">
+        <v>5</v>
+      </c>
+      <c r="AR19">
+        <v>5</v>
+      </c>
+      <c r="AS19">
+        <v>5</v>
+      </c>
+      <c r="AT19">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
         <v>85</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>5280</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>3600000</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>250</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>31.166666666666664</v>
       </c>
+      <c r="F20">
+        <v>446</v>
+      </c>
+      <c r="G20">
+        <v>68</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f>SUM(ABS(M12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <f>SUM(ABS(N12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f>SUM(ABS(O12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <f>SUM(ABS(P12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(ABS(Q12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <f>SUM(ABS(R12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:AA20" si="11">SUM(ABS(S12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <f>SUM(ABS(AF12)/5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <f>SUM(ABS(AG12)/5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <f>SUM(ABS(AH12)/5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <f>SUM(ABS(AI12)/5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <f>SUM(ABS(AJ12)/5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <f>SUM(ABS(AK12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" ref="AL20:AT20" si="12">SUM(ABS(AL12)/5)+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
         <v>90</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5280</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3600000</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>250</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="F21">
+        <v>494</v>
+      </c>
+      <c r="G21">
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <f>SUM(K19*K20)</f>
+        <v>48</v>
+      </c>
+      <c r="L21" s="3">
+        <f>SUM(L19*L20)</f>
+        <v>48</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ref="M21:Q21" si="13">SUM(M19*M20)</f>
+        <v>72</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21" si="14">SUM(R19*R20)</f>
+        <v>24</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" ref="S21" si="15">SUM(S19*S20)</f>
+        <v>24</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:W21" si="16">SUM(T19*T20)</f>
+        <v>24</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" ref="X21" si="17">SUM(X19*X20)</f>
+        <v>10</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" ref="Y21" si="18">SUM(Y19*Y20)</f>
+        <v>10</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" ref="Z21" si="19">SUM(Z19*Z20)</f>
+        <v>10</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" ref="AA21" si="20">SUM(AA19*AA20)</f>
+        <v>5</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <f>SUM(AD19*AD20)</f>
+        <v>24</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>SUM(AE19*AE20)</f>
+        <v>24</v>
+      </c>
+      <c r="AF21" s="3">
+        <f t="shared" ref="AF21" si="21">SUM(AF19*AF20)</f>
+        <v>48</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" ref="AG21" si="22">SUM(AG19*AG20)</f>
+        <v>40</v>
+      </c>
+      <c r="AH21" s="3">
+        <f t="shared" ref="AH21" si="23">SUM(AH19*AH20)</f>
+        <v>32</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" ref="AI21" si="24">SUM(AI19*AI20)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ21" s="4">
+        <f t="shared" ref="AJ21" si="25">SUM(AJ19*AJ20)</f>
+        <v>16</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" ref="AK21" si="26">SUM(AK19*AK20)</f>
+        <v>24</v>
+      </c>
+      <c r="AL21" s="4">
+        <f t="shared" ref="AL21" si="27">SUM(AL19*AL20)</f>
+        <v>24</v>
+      </c>
+      <c r="AM21" s="4">
+        <f t="shared" ref="AM21" si="28">SUM(AM19*AM20)</f>
+        <v>24</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" ref="AN21" si="29">SUM(AN19*AN20)</f>
+        <v>24</v>
+      </c>
+      <c r="AO21" s="3">
+        <f t="shared" ref="AO21" si="30">SUM(AO19*AO20)</f>
+        <v>24</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" ref="AP21" si="31">SUM(AP19*AP20)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ21" s="3">
+        <f t="shared" ref="AQ21" si="32">SUM(AQ19*AQ20)</f>
+        <v>10</v>
+      </c>
+      <c r="AR21" s="4">
+        <f t="shared" ref="AR21" si="33">SUM(AR19*AR20)</f>
+        <v>10</v>
+      </c>
+      <c r="AS21" s="4">
+        <f t="shared" ref="AS21" si="34">SUM(AS19*AS20)</f>
+        <v>10</v>
+      </c>
+      <c r="AT21" s="4">
+        <f t="shared" ref="AT21" si="35">SUM(AT19*AT20)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
         <v>95</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>5280</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3600000</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>250</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>34.833333333333336</v>
       </c>
+      <c r="F22">
+        <v>545</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <v>80</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
         <v>100</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>5280</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>3600000</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>250</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>36.666666666666664</v>
+      </c>
+      <c r="F23">
+        <v>598</v>
+      </c>
+      <c r="G23">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ASPNETCore-SignalR-Angular-TypeScript/App/Game/SpeedCalculations.xlsx
+++ b/ASPNETCore-SignalR-Angular-TypeScript/App/Game/SpeedCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\games\HazardHighway\ASPNETCore-SignalR-Angular-TypeScript\App\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154ABAA6-A410-4C9F-85AB-3A59A1622DDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624DC3C-1A67-493C-90D6-4212BB227CBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8160" xr2:uid="{6110ACBD-490E-4EE7-AB26-B94330B23FB7}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="topRight" activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -539,7 +539,8 @@
     <col min="10" max="10" width="33.734375" customWidth="1"/>
     <col min="11" max="27" width="3.68359375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.5234375" customWidth="1"/>
-    <col min="30" max="46" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="30" max="36" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="4.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1374,49 +1375,19 @@
         <v>276</v>
       </c>
       <c r="AF9">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="AG9">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="AH9">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="AI9">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="AJ9">
-        <v>330</v>
-      </c>
-      <c r="AK9">
-        <v>330</v>
-      </c>
-      <c r="AL9">
-        <v>330</v>
-      </c>
-      <c r="AM9">
-        <v>330</v>
-      </c>
-      <c r="AN9">
-        <v>330</v>
-      </c>
-      <c r="AO9">
-        <v>330</v>
-      </c>
-      <c r="AP9">
-        <v>330</v>
-      </c>
-      <c r="AQ9">
-        <v>330</v>
-      </c>
-      <c r="AR9">
-        <v>330</v>
-      </c>
-      <c r="AS9">
-        <v>330</v>
-      </c>
-      <c r="AT9">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.55000000000000004">
@@ -1562,63 +1533,63 @@
       </c>
       <c r="AF11" s="3">
         <f>SUM(AF9-AF18)</f>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="AG11" s="3">
         <f>SUM(AG9-AG18)</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AH11" s="3">
         <f>SUM(AH9-AH18)</f>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AI11" s="4">
         <f>SUM(AI9-AI18)</f>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="AJ11" s="4">
         <f>SUM(AJ9-AJ18)</f>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AK11" s="4">
         <f>SUM(AK9-AK18)</f>
-        <v>33</v>
+        <v>-297</v>
       </c>
       <c r="AL11">
         <f t="shared" ref="AL11:AT11" si="5">SUM(AL9-AL18)</f>
-        <v>29</v>
+        <v>-301</v>
       </c>
       <c r="AM11" s="4">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>-305</v>
       </c>
       <c r="AN11" s="3">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>-309</v>
       </c>
       <c r="AO11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>-317</v>
       </c>
       <c r="AP11">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>-319</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>-321</v>
       </c>
       <c r="AR11">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>-323</v>
       </c>
       <c r="AS11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-325</v>
       </c>
       <c r="AT11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-327</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.55000000000000004">
